--- a/biology/Médecine/GE_Healthcare/GE_Healthcare.xlsx
+++ b/biology/Médecine/GE_Healthcare/GE_Healthcare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-GE HealthCare est une entreprise américaine du secteur médical, implantée dans plus de 100 pays[2]. L'entreprise fabrique et distribue notamment des outils d'imagerie servant au diagnostic médical.
+GE HealthCare est une entreprise américaine du secteur médical, implantée dans plus de 100 pays. L'entreprise fabrique et distribue notamment des outils d'imagerie servant au diagnostic médical.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GE Healthcare a été fondée à New York et siège à Chicago. C'est une filiale de General Electric jusqu'en 2023. En 2019 elle affiche un chiffre d'affaires de 20 milliards d'euros[2].
-En janvier 2023, GE Healthcare devient indépendant de General Electric par une introduction en bourse. Elle compte à ce moment-là 51 000 employés pour 18 milliards de chiffres d'affaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GE Healthcare a été fondée à New York et siège à Chicago. C'est une filiale de General Electric jusqu'en 2023. En 2019 elle affiche un chiffre d'affaires de 20 milliards d'euros.
+En janvier 2023, GE Healthcare devient indépendant de General Electric par une introduction en bourse. Elle compte à ce moment-là 51 000 employés pour 18 milliards de chiffres d'affaires.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son président-directeur général aux États-Unis est Peter Arduini depuis 2022[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son président-directeur général aux États-Unis est Peter Arduini depuis 2022.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>GE Healthcare France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette filiale a été créée le 1er janvier 1969. Elle est immatriculée 303 215 123, à Velizy Villacoublay et est dirigée par Claude Cochard.
 </t>
@@ -608,11 +626,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agents de contraste à base de gadolinium
-En 1994, la firme ignora l'avis de ses experts sécurité de restreindre l'utilisation de son produit de contraste pour l'IRM Omniscan[5] et essaya de cacher les preuves de son risque pour la santé en demandant à ses chercheurs de "détruire les données", comme révélé lors d'un procès opposé aux consommateurs[6] handicapés dues à son accumulation dans plusieurs organes.
-En 2009, GE Healthcare a poursuivi en diffamation un radiologiste de l'Hospital de l'Université de Copenhague qui avait lié l'utilisation d'Omniscan avec la fibrose néphrogénique systémique après que 20 de ses patients (dont un mourut) en ont été affectés par son administration[7].
-En 2017, GE Healthcare s'opposa à la suspension de l'utilisation de l'Omniscan (avec d'autres agents linéaires) par l'EMA, malgré des preuves de la haute cytotoxicité du gadodiamide[8] et sa propension à se dissocier après rétention dans les tissus.
-Dans une étude datant de 2020, leur autre agent pour IRM Clariscan a été retenu davantage dans le cerveau, cervelet, rein et foie de rats que ceux injectés Dotarem[9], son médicament original. Bien que les auteurs ne fournissent pas de raison éventuelle, les différences dans le processus de chélation des ions gadoliniums (le processus de Guerbet étant breveté) ou une assurance qualité pourraient être des causes d'augmentation de la rétention in vivo.
+          <t>Agents de contraste à base de gadolinium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, la firme ignora l'avis de ses experts sécurité de restreindre l'utilisation de son produit de contraste pour l'IRM Omniscan et essaya de cacher les preuves de son risque pour la santé en demandant à ses chercheurs de "détruire les données", comme révélé lors d'un procès opposé aux consommateurs handicapés dues à son accumulation dans plusieurs organes.
+En 2009, GE Healthcare a poursuivi en diffamation un radiologiste de l'Hospital de l'Université de Copenhague qui avait lié l'utilisation d'Omniscan avec la fibrose néphrogénique systémique après que 20 de ses patients (dont un mourut) en ont été affectés par son administration.
+En 2017, GE Healthcare s'opposa à la suspension de l'utilisation de l'Omniscan (avec d'autres agents linéaires) par l'EMA, malgré des preuves de la haute cytotoxicité du gadodiamide et sa propension à se dissocier après rétention dans les tissus.
+Dans une étude datant de 2020, leur autre agent pour IRM Clariscan a été retenu davantage dans le cerveau, cervelet, rein et foie de rats que ceux injectés Dotarem, son médicament original. Bien que les auteurs ne fournissent pas de raison éventuelle, les différences dans le processus de chélation des ions gadoliniums (le processus de Guerbet étant breveté) ou une assurance qualité pourraient être des causes d'augmentation de la rétention in vivo.
 </t>
         </is>
       </c>
